--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Scenario1</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>products</t>
   </si>
 </sst>
 </file>
@@ -400,32 +406,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://development-abh-anastasiabeverlyhills.demandware.net/on/demandware.store/Sites-Site/default/ViewChannelCatalog_52-Browse?CatalogCategoryID=643faf3c63350ad2c35b949fd7&amp;CatalogID=anastasia-site-catalog&amp;BackTo=CategoryList&amp;csrf_token=pEV8cwawXYcNkpr7HALHB2vpjTIJedpnysDnrRYhJukw8U0IyBn1JNwjZE1ckDPiuVc2-vrXg-drHXvwWRJzk1KGF_FgHC2eAXaBETjf3dWDBChj9g--m-4AIX_bZ0hyA6oY8X9WwxiXQ10y8kIBZ88KzsBPS-aYfw2IfVSjkY1fbnf7F5o"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
